--- a/Code/Results/Cases/Case_4_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8502158918171574</v>
+        <v>0.3983698899088211</v>
       </c>
       <c r="C2">
-        <v>0.1574766115026165</v>
+        <v>0.07897745812434209</v>
       </c>
       <c r="D2">
-        <v>0.4187651352703341</v>
+        <v>0.6180439278381868</v>
       </c>
       <c r="E2">
-        <v>0.1466431070339311</v>
+        <v>0.2369271818513674</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008219162990746486</v>
+        <v>0.002500857343096379</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4425049636921372</v>
+        <v>0.9477496427068672</v>
       </c>
       <c r="J2">
-        <v>0.06013155619451993</v>
+        <v>0.1120773264191222</v>
       </c>
       <c r="K2">
-        <v>0.9642828797953484</v>
+        <v>0.4589630088180456</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.395598874029595</v>
+        <v>0.3430080280805754</v>
       </c>
       <c r="N2">
-        <v>1.006015729597461</v>
+        <v>2.140150110315426</v>
       </c>
       <c r="O2">
-        <v>2.419854842066599</v>
+        <v>4.855211653973072</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7384062061590555</v>
+        <v>0.3673045729500757</v>
       </c>
       <c r="C3">
-        <v>0.1367154273774389</v>
+        <v>0.07342274756952349</v>
       </c>
       <c r="D3">
-        <v>0.3847151700270928</v>
+        <v>0.6126623398149604</v>
       </c>
       <c r="E3">
-        <v>0.1360916028557533</v>
+        <v>0.2355572969155837</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008259396308242362</v>
+        <v>0.00250353495305797</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4419310117766351</v>
+        <v>0.9532090292353743</v>
       </c>
       <c r="J3">
-        <v>0.05687751112735029</v>
+        <v>0.1118950956651048</v>
       </c>
       <c r="K3">
-        <v>0.8373999071493188</v>
+        <v>0.4240039180121471</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3487094095562924</v>
+        <v>0.3318957728824614</v>
       </c>
       <c r="N3">
-        <v>1.052202380288833</v>
+        <v>2.160070240037701</v>
       </c>
       <c r="O3">
-        <v>2.369288728934976</v>
+        <v>4.871888618469143</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6700157216402545</v>
+        <v>0.3483554653338956</v>
       </c>
       <c r="C4">
-        <v>0.1240436483857366</v>
+        <v>0.07003953440113264</v>
       </c>
       <c r="D4">
-        <v>0.3642961191475962</v>
+        <v>0.6096426966952606</v>
       </c>
       <c r="E4">
-        <v>0.1297947823261865</v>
+        <v>0.2348225487910653</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008284937468455156</v>
+        <v>0.002505267865407249</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.44232283895359</v>
+        <v>0.9569659062567162</v>
       </c>
       <c r="J4">
-        <v>0.05496061806366725</v>
+        <v>0.1118308127153433</v>
       </c>
       <c r="K4">
-        <v>0.7598252226345039</v>
+        <v>0.4026866512202218</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3202134282175919</v>
+        <v>0.3252329329025585</v>
       </c>
       <c r="N4">
-        <v>1.081768033728446</v>
+        <v>2.172928595430559</v>
       </c>
       <c r="O4">
-        <v>2.342291550083331</v>
+        <v>4.884314632267916</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6422001532280603</v>
+        <v>0.3406654421252426</v>
       </c>
       <c r="C5">
-        <v>0.1188958738774488</v>
+        <v>0.06866778465962398</v>
       </c>
       <c r="D5">
-        <v>0.3560905193973696</v>
+        <v>0.6084838905982508</v>
       </c>
       <c r="E5">
-        <v>0.1272719217154403</v>
+        <v>0.2345499226642396</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000829555999091342</v>
+        <v>0.002505996449479116</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4426625792992951</v>
+        <v>0.9585986958208501</v>
       </c>
       <c r="J5">
-        <v>0.05419881321399345</v>
+        <v>0.1118166014571322</v>
       </c>
       <c r="K5">
-        <v>0.7282822473455042</v>
+        <v>0.3940372884579801</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3086682311992988</v>
+        <v>0.3225581996136881</v>
       </c>
       <c r="N5">
-        <v>1.094113087756815</v>
+        <v>2.178326242399988</v>
       </c>
       <c r="O5">
-        <v>2.332264334448354</v>
+        <v>4.889928380854514</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6375843416590499</v>
+        <v>0.3393904584656582</v>
       </c>
       <c r="C6">
-        <v>0.1180419778844879</v>
+        <v>0.06844042702576303</v>
       </c>
       <c r="D6">
-        <v>0.3547347442975166</v>
+        <v>0.6082958077330858</v>
       </c>
       <c r="E6">
-        <v>0.1268555354684509</v>
+        <v>0.2345062726014646</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008297336898917307</v>
+        <v>0.002506118785841227</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4427296682208102</v>
+        <v>0.9588759709598911</v>
       </c>
       <c r="J6">
-        <v>0.05407345479540737</v>
+        <v>0.1118149659193612</v>
       </c>
       <c r="K6">
-        <v>0.7230483496178977</v>
+        <v>0.3926033521278214</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3067550216287174</v>
+        <v>0.3221165087277882</v>
       </c>
       <c r="N6">
-        <v>1.096180712672693</v>
+        <v>2.179232046656832</v>
       </c>
       <c r="O6">
-        <v>2.330656920979976</v>
+        <v>4.89089376953163</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6696403868839411</v>
+        <v>0.3482516252923347</v>
       </c>
       <c r="C7">
-        <v>0.1239741623757027</v>
+        <v>0.07002100635290276</v>
       </c>
       <c r="D7">
-        <v>0.364184998006678</v>
+        <v>0.6096267780410187</v>
       </c>
       <c r="E7">
-        <v>0.1297605867708747</v>
+        <v>0.2348187635319761</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008285079854776771</v>
+        <v>0.002505277600542533</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.442326700821031</v>
+        <v>0.956987514258401</v>
       </c>
       <c r="J7">
-        <v>0.05495026711958673</v>
+        <v>0.1118305725145028</v>
       </c>
       <c r="K7">
-        <v>0.7593995604185011</v>
+        <v>0.4025698500761052</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3200574625931907</v>
+        <v>0.3251966966067528</v>
       </c>
       <c r="N7">
-        <v>1.081933330225361</v>
+        <v>2.173000751185796</v>
       </c>
       <c r="O7">
-        <v>2.342152431223383</v>
+        <v>4.88438811375002</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8116025388922878</v>
+        <v>0.3876328465865697</v>
       </c>
       <c r="C8">
-        <v>0.1503006154352278</v>
+        <v>0.07705653292683223</v>
       </c>
       <c r="D8">
-        <v>0.4069189383913994</v>
+        <v>0.6161293527958804</v>
       </c>
       <c r="E8">
-        <v>0.1429656084737019</v>
+        <v>0.2364327938593753</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008232863805540669</v>
+        <v>0.002501762182593725</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.442148229423946</v>
+        <v>0.9495480501507707</v>
       </c>
       <c r="J8">
-        <v>0.05899207886405478</v>
+        <v>0.1120046199729927</v>
       </c>
       <c r="K8">
-        <v>0.9204559420640237</v>
+        <v>0.446878701223909</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3793660369073777</v>
+        <v>0.3391433806793458</v>
       </c>
       <c r="N8">
-        <v>1.021686294173985</v>
+        <v>2.146888385156171</v>
       </c>
       <c r="O8">
-        <v>2.401551616998574</v>
+        <v>4.860508271501743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.092627503647122</v>
+        <v>0.4658373104905138</v>
       </c>
       <c r="C9">
-        <v>0.2026712556885144</v>
+        <v>0.09106929496840621</v>
       </c>
       <c r="D9">
-        <v>0.4949435628997776</v>
+        <v>0.6311348456373764</v>
       </c>
       <c r="E9">
-        <v>0.1704279052777551</v>
+        <v>0.2404404121888746</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008136941887534521</v>
+        <v>0.002495570396622599</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4480410059032351</v>
+        <v>0.9381695457801769</v>
       </c>
       <c r="J9">
-        <v>0.0676120927522561</v>
+        <v>0.1127232255134558</v>
       </c>
       <c r="K9">
-        <v>1.239612988286041</v>
+        <v>0.5349257820606965</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4983391158945807</v>
+        <v>0.3677579475282471</v>
       </c>
       <c r="N9">
-        <v>0.9134320225702837</v>
+        <v>2.100657944102593</v>
       </c>
       <c r="O9">
-        <v>2.552289394258622</v>
+        <v>4.831017988131919</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.301559844861373</v>
+        <v>0.5238764720306506</v>
       </c>
       <c r="C10">
-        <v>0.241819564459675</v>
+        <v>0.101495578640808</v>
       </c>
       <c r="D10">
-        <v>0.5627169103959488</v>
+        <v>0.6435289844991416</v>
       </c>
       <c r="E10">
-        <v>0.191745344622106</v>
+        <v>0.2438970845843471</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000807015871893689</v>
+        <v>0.002491444954061106</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4566746049151007</v>
+        <v>0.9317651975503551</v>
       </c>
       <c r="J10">
-        <v>0.07444352035174262</v>
+        <v>0.11348080372629</v>
       </c>
       <c r="K10">
-        <v>1.477170725483717</v>
+        <v>0.6003065162577172</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.587876832487261</v>
+        <v>0.3895476517071401</v>
       </c>
       <c r="N10">
-        <v>0.84038524344124</v>
+        <v>2.069722474541059</v>
       </c>
       <c r="O10">
-        <v>2.687055469675869</v>
+        <v>4.819913815439861</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.397348508606512</v>
+        <v>0.5504038551531494</v>
       </c>
       <c r="C11">
-        <v>0.2598275409604582</v>
+        <v>0.1062671661986769</v>
       </c>
       <c r="D11">
-        <v>0.5943479358953425</v>
+        <v>0.6494639740931234</v>
       </c>
       <c r="E11">
-        <v>0.2017351882579916</v>
+        <v>0.2455806071043014</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00080405186937695</v>
+        <v>0.002489659272779149</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4616555815990822</v>
+        <v>0.9292760082179896</v>
       </c>
       <c r="J11">
-        <v>0.07767748878265479</v>
+        <v>0.1138752365736693</v>
       </c>
       <c r="K11">
-        <v>1.586160181010257</v>
+        <v>0.6301979069277195</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6291919127619039</v>
+        <v>0.3996259693558386</v>
       </c>
       <c r="N11">
-        <v>0.8086724622552737</v>
+        <v>2.056306359458986</v>
       </c>
       <c r="O11">
-        <v>2.754328016600823</v>
+        <v>4.817154611844614</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.433746223582716</v>
+        <v>0.5604667160975794</v>
       </c>
       <c r="C12">
-        <v>0.2666800282951272</v>
+        <v>0.1080781263959807</v>
       </c>
       <c r="D12">
-        <v>0.6064520573196432</v>
+        <v>0.6517539745894965</v>
       </c>
       <c r="E12">
-        <v>0.2055640690920058</v>
+        <v>0.2462340512604158</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008029395965156812</v>
+        <v>0.002488996099205543</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.463703904478038</v>
+        <v>0.9283943867158158</v>
       </c>
       <c r="J12">
-        <v>0.07892187785252958</v>
+        <v>0.1140317505960908</v>
       </c>
       <c r="K12">
-        <v>1.627586545462236</v>
+        <v>0.641538121509484</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6449314379725308</v>
+        <v>0.4034661192085807</v>
       </c>
       <c r="N12">
-        <v>0.7968917630777135</v>
+        <v>2.051320430715837</v>
       </c>
       <c r="O12">
-        <v>2.78072755432737</v>
+        <v>4.816439214513906</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.425901487279503</v>
+        <v>0.558298727361489</v>
       </c>
       <c r="C13">
-        <v>0.2652026660045124</v>
+        <v>0.1076879238128186</v>
       </c>
       <c r="D13">
-        <v>0.6038394242143568</v>
+        <v>0.651258891802911</v>
       </c>
       <c r="E13">
-        <v>0.2047373427114394</v>
+        <v>0.2460926124886385</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008031787022152705</v>
+        <v>0.002489138347095851</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4632553728275681</v>
+        <v>0.9285815478102535</v>
       </c>
       <c r="J13">
-        <v>0.07865297117616876</v>
+        <v>0.1139977246434967</v>
       </c>
       <c r="K13">
-        <v>1.618657406075954</v>
+        <v>0.6390948774246965</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6415372766212002</v>
+        <v>0.4026380224629236</v>
       </c>
       <c r="N13">
-        <v>0.7994186265744787</v>
+        <v>2.05239003764239</v>
       </c>
       <c r="O13">
-        <v>2.774999689670665</v>
+        <v>4.816578638034997</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.400340367324503</v>
+        <v>0.5512313844081973</v>
       </c>
       <c r="C14">
-        <v>0.2603906049546367</v>
+        <v>0.1064160738413307</v>
       </c>
       <c r="D14">
-        <v>0.5953411553120418</v>
+        <v>0.6496515218486252</v>
       </c>
       <c r="E14">
-        <v>0.2020492484994136</v>
+        <v>0.2456340473038239</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008039601620049021</v>
+        <v>0.002489604452436291</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4618207852395955</v>
+        <v>0.9292022546380494</v>
       </c>
       <c r="J14">
-        <v>0.0777794599592454</v>
+        <v>0.1138879698267417</v>
       </c>
       <c r="K14">
-        <v>1.58956512813424</v>
+        <v>0.6311304552419017</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6304848585047012</v>
+        <v>0.3999414265995398</v>
       </c>
       <c r="N14">
-        <v>0.8076986218882993</v>
+        <v>2.055894270645606</v>
       </c>
       <c r="O14">
-        <v>2.756480985891358</v>
+        <v>4.817089153816852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.384700218073391</v>
+        <v>0.5469047000403577</v>
       </c>
       <c r="C15">
-        <v>0.257447552877494</v>
+        <v>0.1056375566662382</v>
       </c>
       <c r="D15">
-        <v>0.5901524876607027</v>
+        <v>0.648672498417028</v>
       </c>
       <c r="E15">
-        <v>0.2004088167695457</v>
+        <v>0.2453552363411404</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008044401322564914</v>
+        <v>0.002489891649633811</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4609635025789345</v>
+        <v>0.9295903964776429</v>
       </c>
       <c r="J15">
-        <v>0.07724703107938069</v>
+        <v>0.1138216727519392</v>
       </c>
       <c r="K15">
-        <v>1.571766049213778</v>
+        <v>0.6262547362792361</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6237275499498693</v>
+        <v>0.3982927663859073</v>
       </c>
       <c r="N15">
-        <v>0.8128003961867911</v>
+        <v>2.058053017834116</v>
       </c>
       <c r="O15">
-        <v>2.74526026046135</v>
+        <v>4.817444759475336</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.295316282365178</v>
+        <v>0.5221453219212719</v>
       </c>
       <c r="C16">
-        <v>0.2406470953628741</v>
+        <v>0.1011843156275063</v>
       </c>
       <c r="D16">
-        <v>0.5606667821031124</v>
+        <v>0.6431470804361368</v>
       </c>
       <c r="E16">
-        <v>0.1910986957216281</v>
+        <v>0.2437892938947286</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008072110226053664</v>
+        <v>0.002491563478680398</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.456371178197557</v>
+        <v>0.9319364061327917</v>
       </c>
       <c r="J16">
-        <v>0.07423484811656778</v>
+        <v>0.1134560278854693</v>
       </c>
       <c r="K16">
-        <v>1.470068401082216</v>
+        <v>0.5983560077596906</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5851894193210398</v>
+        <v>0.3888923371036981</v>
       </c>
       <c r="N16">
-        <v>0.8424891177007368</v>
+        <v>2.070612465311196</v>
       </c>
       <c r="O16">
-        <v>2.682784723592675</v>
+        <v>4.820140246410261</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2406848812237</v>
+        <v>0.5069879468772456</v>
       </c>
       <c r="C17">
-        <v>0.2303947489824338</v>
+        <v>0.09845968959612605</v>
       </c>
       <c r="D17">
-        <v>0.5427908990762376</v>
+        <v>0.6398333452606835</v>
       </c>
       <c r="E17">
-        <v>0.1854648194772679</v>
+        <v>0.2428570566499744</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008089294735317854</v>
+        <v>0.002492612356194821</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4538311013388565</v>
+        <v>0.9334842382641924</v>
       </c>
       <c r="J17">
-        <v>0.07242042033896468</v>
+        <v>0.1132444652609053</v>
       </c>
       <c r="K17">
-        <v>1.407931559663979</v>
+        <v>0.5812789527986126</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5617042658760667</v>
+        <v>0.3831678914335015</v>
       </c>
       <c r="N17">
-        <v>0.8610976204085468</v>
+        <v>2.078485479051349</v>
       </c>
       <c r="O17">
-        <v>2.646032311974579</v>
+        <v>4.822380802350153</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.209331272168839</v>
+        <v>0.4982816265954852</v>
       </c>
       <c r="C18">
-        <v>0.2245163244447781</v>
+        <v>0.09689525360340667</v>
       </c>
       <c r="D18">
-        <v>0.5325838145731154</v>
+        <v>0.637955319935827</v>
       </c>
       <c r="E18">
-        <v>0.1822516389860951</v>
+        <v>0.2423313148078066</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008099248785257394</v>
+        <v>0.002493224212244304</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4524685970990205</v>
+        <v>0.9344144372047438</v>
       </c>
       <c r="J18">
-        <v>0.07138859716856416</v>
+        <v>0.1131274687517916</v>
       </c>
       <c r="K18">
-        <v>1.372277602019466</v>
+        <v>0.5714707705773208</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5482505196609893</v>
+        <v>0.379890983416054</v>
       </c>
       <c r="N18">
-        <v>0.8719428351787215</v>
+        <v>2.08307562623007</v>
       </c>
       <c r="O18">
-        <v>2.625450637637073</v>
+        <v>4.823885266984689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.198726802073281</v>
+        <v>0.4953358572646493</v>
       </c>
       <c r="C19">
-        <v>0.2225290258095072</v>
+        <v>0.09636602721930387</v>
       </c>
       <c r="D19">
-        <v>0.5291403695454733</v>
+        <v>0.6373242569684407</v>
       </c>
       <c r="E19">
-        <v>0.1811682819037799</v>
+        <v>0.2421551047714843</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008102631223240232</v>
+        <v>0.002493432849785654</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4520238786924224</v>
+        <v>0.9347362445597156</v>
       </c>
       <c r="J19">
-        <v>0.07104121751630998</v>
+        <v>0.1130886613797912</v>
       </c>
       <c r="K19">
-        <v>1.360219837281733</v>
+        <v>0.5681523230300058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5437043317016474</v>
+        <v>0.3787841703628985</v>
       </c>
       <c r="N19">
-        <v>0.8756389457634626</v>
+        <v>2.08464038367617</v>
       </c>
       <c r="O19">
-        <v>2.618575800847083</v>
+        <v>4.824431713914208</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.246493230003296</v>
+        <v>0.5086002573719952</v>
       </c>
       <c r="C20">
-        <v>0.2314841866091655</v>
+        <v>0.09874945195279849</v>
       </c>
       <c r="D20">
-        <v>0.5446860139971363</v>
+        <v>0.6401832065485564</v>
       </c>
       <c r="E20">
-        <v>0.1860617049415509</v>
+        <v>0.2429552129937278</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008087458208970301</v>
+        <v>0.00249249981514684</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4540912297845381</v>
+        <v>0.9333153367310345</v>
       </c>
       <c r="J20">
-        <v>0.07261233813500212</v>
+        <v>0.113266501280826</v>
       </c>
       <c r="K20">
-        <v>1.414537130796418</v>
+        <v>0.583095379897685</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5641986083040749</v>
+        <v>0.383775650827836</v>
       </c>
       <c r="N20">
-        <v>0.8591019358022969</v>
+        <v>2.077640987113899</v>
       </c>
       <c r="O20">
-        <v>2.649886517284784</v>
+        <v>4.822119962509646</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.407844758738264</v>
+        <v>0.5533067626928982</v>
       </c>
       <c r="C21">
-        <v>0.261803082742091</v>
+        <v>0.1067895371376437</v>
       </c>
       <c r="D21">
-        <v>0.5978337877803881</v>
+        <v>0.6501224916880233</v>
       </c>
       <c r="E21">
-        <v>0.2028375275969339</v>
+        <v>0.2457683069804659</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008037303576348985</v>
+        <v>0.002489467192794526</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4622376694704684</v>
+        <v>0.9290182831307661</v>
       </c>
       <c r="J21">
-        <v>0.0780354819561353</v>
+        <v>0.1139200134943437</v>
       </c>
       <c r="K21">
-        <v>1.598105863558857</v>
+        <v>0.6334692332028169</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6337285725906128</v>
+        <v>0.4007328400627586</v>
       </c>
       <c r="N21">
-        <v>0.80526030746773</v>
+        <v>2.054862428386258</v>
       </c>
       <c r="O21">
-        <v>2.761894719696841</v>
+        <v>4.816930262906709</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.514032862454428</v>
+        <v>0.5826269309528413</v>
       </c>
       <c r="C22">
-        <v>0.2818144967414469</v>
+        <v>0.1120678590064017</v>
       </c>
       <c r="D22">
-        <v>0.6333098590895929</v>
+        <v>0.6568663327523154</v>
       </c>
       <c r="E22">
-        <v>0.2140713080118317</v>
+        <v>0.2476996642235534</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008005112499404505</v>
+        <v>0.002487561093309773</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4685123875316322</v>
+        <v>0.9265653439000801</v>
       </c>
       <c r="J22">
-        <v>0.08169579446617092</v>
+        <v>0.1143887969968205</v>
       </c>
       <c r="K22">
-        <v>1.718989998876452</v>
+        <v>0.6665136001596181</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6797260772184046</v>
+        <v>0.4119534620831047</v>
       </c>
       <c r="N22">
-        <v>0.7714073199769302</v>
+        <v>2.040525949173972</v>
       </c>
       <c r="O22">
-        <v>2.840524125161835</v>
+        <v>4.815458729672343</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.45728480699637</v>
+        <v>0.5669690381992893</v>
       </c>
       <c r="C23">
-        <v>0.2711144484844681</v>
+        <v>0.1092485713824942</v>
       </c>
       <c r="D23">
-        <v>0.6143039665193157</v>
+        <v>0.6532443758153761</v>
       </c>
       <c r="E23">
-        <v>0.2080495790732826</v>
+        <v>0.2466603811685104</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008022241464882234</v>
+        <v>0.002488571490178448</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.465072757877742</v>
+        <v>0.9278420067559452</v>
       </c>
       <c r="J23">
-        <v>0.07973104819313903</v>
+        <v>0.1141347888278332</v>
       </c>
       <c r="K23">
-        <v>1.654380878163948</v>
+        <v>0.6488661839923964</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.655121847670209</v>
+        <v>0.405952223711104</v>
       </c>
       <c r="N23">
-        <v>0.7893495338590384</v>
+        <v>2.048127199448317</v>
       </c>
       <c r="O23">
-        <v>2.798038296517745</v>
+        <v>4.816068463249479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.24386710642159</v>
+        <v>0.5078713072900598</v>
       </c>
       <c r="C24">
-        <v>0.2309916030325638</v>
+        <v>0.09861844419566523</v>
       </c>
       <c r="D24">
-        <v>0.5438290153341825</v>
+        <v>0.6400249498840651</v>
       </c>
       <c r="E24">
-        <v>0.1857917729216965</v>
+        <v>0.2429108046933592</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008088288269909018</v>
+        <v>0.002492550667250816</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4539733218231206</v>
+        <v>0.9333915714866805</v>
       </c>
       <c r="J24">
-        <v>0.0725255369729183</v>
+        <v>0.1132565243620505</v>
       </c>
       <c r="K24">
-        <v>1.411550537726043</v>
+        <v>0.5822741431297231</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5630707667978072</v>
+        <v>0.3835008387111998</v>
       </c>
       <c r="N24">
-        <v>0.8600037278915842</v>
+        <v>2.078022583038248</v>
       </c>
       <c r="O24">
-        <v>2.648142329860121</v>
+        <v>4.822237214296962</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.016235557579421</v>
+        <v>0.4445776628689089</v>
       </c>
       <c r="C25">
-        <v>0.188402369682521</v>
+        <v>0.08725540140075339</v>
       </c>
       <c r="D25">
-        <v>0.4706260714818598</v>
+        <v>0.6268346223550907</v>
       </c>
       <c r="E25">
-        <v>0.1628124221400604</v>
+        <v>0.2392661875532873</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008162223844134412</v>
+        <v>0.002497170733524218</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4457290230984228</v>
+        <v>0.9409042220791406</v>
       </c>
       <c r="J25">
-        <v>0.06519838655075461</v>
+        <v>0.112488471998418</v>
       </c>
       <c r="K25">
-        <v>1.152812819667588</v>
+        <v>0.5109841466398564</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4658182760539233</v>
+        <v>0.3598819896724024</v>
       </c>
       <c r="N25">
-        <v>0.9416134482345093</v>
+        <v>2.112632166146165</v>
       </c>
       <c r="O25">
-        <v>2.5075322722941</v>
+        <v>4.837140510911041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3983698899088211</v>
+        <v>0.8502158918170437</v>
       </c>
       <c r="C2">
-        <v>0.07897745812434209</v>
+        <v>0.1574766115024744</v>
       </c>
       <c r="D2">
-        <v>0.6180439278381868</v>
+        <v>0.4187651352704194</v>
       </c>
       <c r="E2">
-        <v>0.2369271818513674</v>
+        <v>0.1466431070339169</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002500857343096379</v>
+        <v>0.0008219162990485778</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9477496427068672</v>
+        <v>0.4425049636921337</v>
       </c>
       <c r="J2">
-        <v>0.1120773264191222</v>
+        <v>0.06013155619447019</v>
       </c>
       <c r="K2">
-        <v>0.4589630088180456</v>
+        <v>0.9642828797952916</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3430080280805754</v>
+        <v>0.3955988740295879</v>
       </c>
       <c r="N2">
-        <v>2.140150110315426</v>
+        <v>1.006015729597456</v>
       </c>
       <c r="O2">
-        <v>4.855211653973072</v>
+        <v>2.419854842066627</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3673045729500757</v>
+        <v>0.7384062061590555</v>
       </c>
       <c r="C3">
-        <v>0.07342274756952349</v>
+        <v>0.1367154273772115</v>
       </c>
       <c r="D3">
-        <v>0.6126623398149604</v>
+        <v>0.3847151700272065</v>
       </c>
       <c r="E3">
-        <v>0.2355572969155837</v>
+        <v>0.1360916028557497</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00250353495305797</v>
+        <v>0.0008259396308829115</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9532090292353743</v>
+        <v>0.4419310117766315</v>
       </c>
       <c r="J3">
-        <v>0.1118950956651048</v>
+        <v>0.05687751112741424</v>
       </c>
       <c r="K3">
-        <v>0.4240039180121471</v>
+        <v>0.8373999071493472</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3318957728824614</v>
+        <v>0.3487094095562924</v>
       </c>
       <c r="N3">
-        <v>2.160070240037701</v>
+        <v>1.052202380288772</v>
       </c>
       <c r="O3">
-        <v>4.871888618469143</v>
+        <v>2.369288728935004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3483554653338956</v>
+        <v>0.6700157216402545</v>
       </c>
       <c r="C4">
-        <v>0.07003953440113264</v>
+        <v>0.1240436483859924</v>
       </c>
       <c r="D4">
-        <v>0.6096426966952606</v>
+        <v>0.3642961191478093</v>
       </c>
       <c r="E4">
-        <v>0.2348225487910653</v>
+        <v>0.1297947823262007</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002505267865407249</v>
+        <v>0.0008284937468440054</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9569659062567162</v>
+        <v>0.4423228389535758</v>
       </c>
       <c r="J4">
-        <v>0.1118308127153433</v>
+        <v>0.0549606180637312</v>
       </c>
       <c r="K4">
-        <v>0.4026866512202218</v>
+        <v>0.7598252226345039</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3252329329025585</v>
+        <v>0.3202134282176061</v>
       </c>
       <c r="N4">
-        <v>2.172928595430559</v>
+        <v>1.081768033728498</v>
       </c>
       <c r="O4">
-        <v>4.884314632267916</v>
+        <v>2.34229155008336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3406654421252426</v>
+        <v>0.6422001532280035</v>
       </c>
       <c r="C5">
-        <v>0.06866778465962398</v>
+        <v>0.1188958738775199</v>
       </c>
       <c r="D5">
-        <v>0.6084838905982508</v>
+        <v>0.356090519397668</v>
       </c>
       <c r="E5">
-        <v>0.2345499226642396</v>
+        <v>0.1272719217154332</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002505996449479116</v>
+        <v>0.0008295559990307142</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9585986958208501</v>
+        <v>0.4426625792992951</v>
       </c>
       <c r="J5">
-        <v>0.1118166014571322</v>
+        <v>0.05419881321397568</v>
       </c>
       <c r="K5">
-        <v>0.3940372884579801</v>
+        <v>0.7282822473455042</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3225581996136881</v>
+        <v>0.3086682311992988</v>
       </c>
       <c r="N5">
-        <v>2.178326242399988</v>
+        <v>1.094113087756815</v>
       </c>
       <c r="O5">
-        <v>4.889928380854514</v>
+        <v>2.332264334448382</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3393904584656582</v>
+        <v>0.6375843416590783</v>
       </c>
       <c r="C6">
-        <v>0.06844042702576303</v>
+        <v>0.1180419778844879</v>
       </c>
       <c r="D6">
-        <v>0.6082958077330858</v>
+        <v>0.3547347442977582</v>
       </c>
       <c r="E6">
-        <v>0.2345062726014646</v>
+        <v>0.1268555354684331</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002506118785841227</v>
+        <v>0.0008297336898909305</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9588759709598911</v>
+        <v>0.4427296682208244</v>
       </c>
       <c r="J6">
-        <v>0.1118149659193612</v>
+        <v>0.05407345479548908</v>
       </c>
       <c r="K6">
-        <v>0.3926033521278214</v>
+        <v>0.7230483496178692</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3221165087277882</v>
+        <v>0.3067550216287174</v>
       </c>
       <c r="N6">
-        <v>2.179232046656832</v>
+        <v>1.096180712672625</v>
       </c>
       <c r="O6">
-        <v>4.89089376953163</v>
+        <v>2.330656920979919</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3482516252923347</v>
+        <v>0.669640386883998</v>
       </c>
       <c r="C7">
-        <v>0.07002100635290276</v>
+        <v>0.1239741623756032</v>
       </c>
       <c r="D7">
-        <v>0.6096267780410187</v>
+        <v>0.3641849980068343</v>
       </c>
       <c r="E7">
-        <v>0.2348187635319761</v>
+        <v>0.1297605867708889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002505277600542533</v>
+        <v>0.0008285079853946331</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.956987514258401</v>
+        <v>0.4423267008210274</v>
       </c>
       <c r="J7">
-        <v>0.1118305725145028</v>
+        <v>0.05495026711940199</v>
       </c>
       <c r="K7">
-        <v>0.4025698500761052</v>
+        <v>0.7593995604185011</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3251966966067528</v>
+        <v>0.3200574625931694</v>
       </c>
       <c r="N7">
-        <v>2.173000751185796</v>
+        <v>1.08193333022534</v>
       </c>
       <c r="O7">
-        <v>4.88438811375002</v>
+        <v>2.342152431223298</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3876328465865697</v>
+        <v>0.8116025388922594</v>
       </c>
       <c r="C8">
-        <v>0.07705653292683223</v>
+        <v>0.1503006154354551</v>
       </c>
       <c r="D8">
-        <v>0.6161293527958804</v>
+        <v>0.406918938391442</v>
       </c>
       <c r="E8">
-        <v>0.2364327938593753</v>
+        <v>0.1429656084737196</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002501762182593725</v>
+        <v>0.00082328638058306</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9495480501507707</v>
+        <v>0.4421482294239496</v>
       </c>
       <c r="J8">
-        <v>0.1120046199729927</v>
+        <v>0.05899207886417912</v>
       </c>
       <c r="K8">
-        <v>0.446878701223909</v>
+        <v>0.9204559420638816</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3391433806793458</v>
+        <v>0.3793660369073919</v>
       </c>
       <c r="N8">
-        <v>2.146888385156171</v>
+        <v>1.021686294173993</v>
       </c>
       <c r="O8">
-        <v>4.860508271501743</v>
+        <v>2.401551616998518</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4658373104905138</v>
+        <v>1.092627503647122</v>
       </c>
       <c r="C9">
-        <v>0.09106929496840621</v>
+        <v>0.2026712556886565</v>
       </c>
       <c r="D9">
-        <v>0.6311348456373764</v>
+        <v>0.4949435628997207</v>
       </c>
       <c r="E9">
-        <v>0.2404404121888746</v>
+        <v>0.1704279052777409</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002495570396622599</v>
+        <v>0.0008136941887528605</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9381695457801769</v>
+        <v>0.4480410059032565</v>
       </c>
       <c r="J9">
-        <v>0.1127232255134558</v>
+        <v>0.06761209275229163</v>
       </c>
       <c r="K9">
-        <v>0.5349257820606965</v>
+        <v>1.239612988286098</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3677579475282471</v>
+        <v>0.4983391158945878</v>
       </c>
       <c r="N9">
-        <v>2.100657944102593</v>
+        <v>0.913432022570273</v>
       </c>
       <c r="O9">
-        <v>4.831017988131919</v>
+        <v>2.552289394258651</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5238764720306506</v>
+        <v>1.301559844861231</v>
       </c>
       <c r="C10">
-        <v>0.101495578640808</v>
+        <v>0.2418195644596892</v>
       </c>
       <c r="D10">
-        <v>0.6435289844991416</v>
+        <v>0.5627169103960057</v>
       </c>
       <c r="E10">
-        <v>0.2438970845843471</v>
+        <v>0.1917453446221202</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002491444954061106</v>
+        <v>0.0008070158718622521</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9317651975503551</v>
+        <v>0.4566746049151078</v>
       </c>
       <c r="J10">
-        <v>0.11348080372629</v>
+        <v>0.0744435203517213</v>
       </c>
       <c r="K10">
-        <v>0.6003065162577172</v>
+        <v>1.477170725483745</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3895476517071401</v>
+        <v>0.5878768324872397</v>
       </c>
       <c r="N10">
-        <v>2.069722474541059</v>
+        <v>0.8403852434412222</v>
       </c>
       <c r="O10">
-        <v>4.819913815439861</v>
+        <v>2.687055469675784</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5504038551531494</v>
+        <v>1.397348508606569</v>
       </c>
       <c r="C11">
-        <v>0.1062671661986769</v>
+        <v>0.2598275409604298</v>
       </c>
       <c r="D11">
-        <v>0.6494639740931234</v>
+        <v>0.5943479358951436</v>
       </c>
       <c r="E11">
-        <v>0.2455806071043014</v>
+        <v>0.2017351882580058</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002489659272779149</v>
+        <v>0.0008040518693750249</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9292760082179896</v>
+        <v>0.4616555815991035</v>
       </c>
       <c r="J11">
-        <v>0.1138752365736693</v>
+        <v>0.07767748878264769</v>
       </c>
       <c r="K11">
-        <v>0.6301979069277195</v>
+        <v>1.586160181010229</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3996259693558386</v>
+        <v>0.6291919127618826</v>
       </c>
       <c r="N11">
-        <v>2.056306359458986</v>
+        <v>0.8086724622552843</v>
       </c>
       <c r="O11">
-        <v>4.817154611844614</v>
+        <v>2.754328016600823</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5604667160975794</v>
+        <v>1.433746223582688</v>
       </c>
       <c r="C12">
-        <v>0.1080781263959807</v>
+        <v>0.2666800282948998</v>
       </c>
       <c r="D12">
-        <v>0.6517539745894965</v>
+        <v>0.6064520573198706</v>
       </c>
       <c r="E12">
-        <v>0.2462340512604158</v>
+        <v>0.2055640690919915</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002488996099205543</v>
+        <v>0.0008029395964535861</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9283943867158158</v>
+        <v>0.4637039044780451</v>
       </c>
       <c r="J12">
-        <v>0.1140317505960908</v>
+        <v>0.07892187785244431</v>
       </c>
       <c r="K12">
-        <v>0.641538121509484</v>
+        <v>1.627586545462179</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4034661192085807</v>
+        <v>0.6449314379725095</v>
       </c>
       <c r="N12">
-        <v>2.051320430715837</v>
+        <v>0.7968917630776922</v>
       </c>
       <c r="O12">
-        <v>4.816439214513906</v>
+        <v>2.780727554327314</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.558298727361489</v>
+        <v>1.425901487279503</v>
       </c>
       <c r="C13">
-        <v>0.1076879238128186</v>
+        <v>0.2652026660045124</v>
       </c>
       <c r="D13">
-        <v>0.651258891802911</v>
+        <v>0.6038394242142147</v>
       </c>
       <c r="E13">
-        <v>0.2460926124886385</v>
+        <v>0.2047373427114323</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002489138347095851</v>
+        <v>0.0008031787022445421</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9285815478102535</v>
+        <v>0.4632553728275823</v>
       </c>
       <c r="J13">
-        <v>0.1139977246434967</v>
+        <v>0.07865297117619718</v>
       </c>
       <c r="K13">
-        <v>0.6390948774246965</v>
+        <v>1.618657406075897</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4026380224629236</v>
+        <v>0.6415372766212002</v>
       </c>
       <c r="N13">
-        <v>2.05239003764239</v>
+        <v>0.7994186265744787</v>
       </c>
       <c r="O13">
-        <v>4.816578638034997</v>
+        <v>2.774999689670636</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5512313844081973</v>
+        <v>1.400340367324588</v>
       </c>
       <c r="C14">
-        <v>0.1064160738413307</v>
+        <v>0.2603906049547788</v>
       </c>
       <c r="D14">
-        <v>0.6496515218486252</v>
+        <v>0.5953411553117292</v>
       </c>
       <c r="E14">
-        <v>0.2456340473038239</v>
+        <v>0.2020492484994278</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002489604452436291</v>
+        <v>0.0008039601619752569</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9292022546380494</v>
+        <v>0.4618207852396097</v>
       </c>
       <c r="J14">
-        <v>0.1138879698267417</v>
+        <v>0.0777794599591104</v>
       </c>
       <c r="K14">
-        <v>0.6311304552419017</v>
+        <v>1.589565128134268</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3999414265995398</v>
+        <v>0.6304848585046869</v>
       </c>
       <c r="N14">
-        <v>2.055894270645606</v>
+        <v>0.8076986218882993</v>
       </c>
       <c r="O14">
-        <v>4.817089153816852</v>
+        <v>2.756480985891329</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5469047000403577</v>
+        <v>1.384700218073391</v>
       </c>
       <c r="C15">
-        <v>0.1056375566662382</v>
+        <v>0.2574475528776077</v>
       </c>
       <c r="D15">
-        <v>0.648672498417028</v>
+        <v>0.5901524876604185</v>
       </c>
       <c r="E15">
-        <v>0.2453552363411404</v>
+        <v>0.2004088167695386</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002489891649633811</v>
+        <v>0.0008044401322565056</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9295903964776429</v>
+        <v>0.4609635025789274</v>
       </c>
       <c r="J15">
-        <v>0.1138216727519392</v>
+        <v>0.0772470310793949</v>
       </c>
       <c r="K15">
-        <v>0.6262547362792361</v>
+        <v>1.571766049213693</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3982927663859073</v>
+        <v>0.6237275499498551</v>
       </c>
       <c r="N15">
-        <v>2.058053017834116</v>
+        <v>0.8128003961868444</v>
       </c>
       <c r="O15">
-        <v>4.817444759475336</v>
+        <v>2.745260260461293</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5221453219212719</v>
+        <v>1.295316282365263</v>
       </c>
       <c r="C16">
-        <v>0.1011843156275063</v>
+        <v>0.2406470953631157</v>
       </c>
       <c r="D16">
-        <v>0.6431470804361368</v>
+        <v>0.5606667821029134</v>
       </c>
       <c r="E16">
-        <v>0.2437892938947286</v>
+        <v>0.191098695721621</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002491563478680398</v>
+        <v>0.0008072110225738262</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9319364061327917</v>
+        <v>0.4563711781975641</v>
       </c>
       <c r="J16">
-        <v>0.1134560278854693</v>
+        <v>0.07423484811661041</v>
       </c>
       <c r="K16">
-        <v>0.5983560077596906</v>
+        <v>1.470068401082244</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3888923371036981</v>
+        <v>0.5851894193210541</v>
       </c>
       <c r="N16">
-        <v>2.070612465311196</v>
+        <v>0.8424891177007972</v>
       </c>
       <c r="O16">
-        <v>4.820140246410261</v>
+        <v>2.682784723592761</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5069879468772456</v>
+        <v>1.240684881223871</v>
       </c>
       <c r="C17">
-        <v>0.09845968959612605</v>
+        <v>0.2303947489826612</v>
       </c>
       <c r="D17">
-        <v>0.6398333452606835</v>
+        <v>0.542790899076266</v>
       </c>
       <c r="E17">
-        <v>0.2428570566499744</v>
+        <v>0.1854648194772821</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002492612356194821</v>
+        <v>0.0008089294735606018</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9334842382641924</v>
+        <v>0.4538311013388423</v>
       </c>
       <c r="J17">
-        <v>0.1132444652609053</v>
+        <v>0.07242042033891494</v>
       </c>
       <c r="K17">
-        <v>0.5812789527986126</v>
+        <v>1.407931559664007</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3831678914335015</v>
+        <v>0.5617042658761022</v>
       </c>
       <c r="N17">
-        <v>2.078485479051349</v>
+        <v>0.8610976204085254</v>
       </c>
       <c r="O17">
-        <v>4.822380802350153</v>
+        <v>2.646032311974551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4982816265954852</v>
+        <v>1.209331272168697</v>
       </c>
       <c r="C18">
-        <v>0.09689525360340667</v>
+        <v>0.2245163244445365</v>
       </c>
       <c r="D18">
-        <v>0.637955319935827</v>
+        <v>0.532583814573286</v>
       </c>
       <c r="E18">
-        <v>0.2423313148078066</v>
+        <v>0.182251638986088</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002493224212244304</v>
+        <v>0.00080992487849846</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9344144372047438</v>
+        <v>0.4524685970990205</v>
       </c>
       <c r="J18">
-        <v>0.1131274687517916</v>
+        <v>0.07138859716867074</v>
       </c>
       <c r="K18">
-        <v>0.5714707705773208</v>
+        <v>1.372277602019381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.379890983416054</v>
+        <v>0.5482505196609893</v>
       </c>
       <c r="N18">
-        <v>2.08307562623007</v>
+        <v>0.8719428351787322</v>
       </c>
       <c r="O18">
-        <v>4.823885266984689</v>
+        <v>2.625450637637016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4953358572646493</v>
+        <v>1.198726802073253</v>
       </c>
       <c r="C19">
-        <v>0.09636602721930387</v>
+        <v>0.2225290258092656</v>
       </c>
       <c r="D19">
-        <v>0.6373242569684407</v>
+        <v>0.5291403695456438</v>
       </c>
       <c r="E19">
-        <v>0.2421551047714843</v>
+        <v>0.1811682819037728</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002493432849785654</v>
+        <v>0.0008102631223236817</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9347362445597156</v>
+        <v>0.4520238786924224</v>
       </c>
       <c r="J19">
-        <v>0.1130886613797912</v>
+        <v>0.07104121751628867</v>
       </c>
       <c r="K19">
-        <v>0.5681523230300058</v>
+        <v>1.360219837281704</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3787841703628985</v>
+        <v>0.5437043317016403</v>
       </c>
       <c r="N19">
-        <v>2.08464038367617</v>
+        <v>0.8756389457634661</v>
       </c>
       <c r="O19">
-        <v>4.824431713914208</v>
+        <v>2.618575800847111</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5086002573719952</v>
+        <v>1.246493230003324</v>
       </c>
       <c r="C20">
-        <v>0.09874945195279849</v>
+        <v>0.2314841866090376</v>
       </c>
       <c r="D20">
-        <v>0.6401832065485564</v>
+        <v>0.5446860139969942</v>
       </c>
       <c r="E20">
-        <v>0.2429552129937278</v>
+        <v>0.1860617049415509</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00249249981514684</v>
+        <v>0.0008087458208680051</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9333153367310345</v>
+        <v>0.4540912297845239</v>
       </c>
       <c r="J20">
-        <v>0.113266501280826</v>
+        <v>0.0726123381351016</v>
       </c>
       <c r="K20">
-        <v>0.583095379897685</v>
+        <v>1.414537130796418</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.383775650827836</v>
+        <v>0.5641986083040962</v>
       </c>
       <c r="N20">
-        <v>2.077640987113899</v>
+        <v>0.8591019358022969</v>
       </c>
       <c r="O20">
-        <v>4.822119962509646</v>
+        <v>2.649886517284813</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5533067626928982</v>
+        <v>1.40784475873852</v>
       </c>
       <c r="C21">
-        <v>0.1067895371376437</v>
+        <v>0.261803082742091</v>
       </c>
       <c r="D21">
-        <v>0.6501224916880233</v>
+        <v>0.5978337877803028</v>
       </c>
       <c r="E21">
-        <v>0.2457683069804659</v>
+        <v>0.202837527596941</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002489467192794526</v>
+        <v>0.0008037303576061702</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9290182831307661</v>
+        <v>0.4622376694704613</v>
       </c>
       <c r="J21">
-        <v>0.1139200134943437</v>
+        <v>0.07803548195617083</v>
       </c>
       <c r="K21">
-        <v>0.6334692332028169</v>
+        <v>1.598105863558771</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4007328400627586</v>
+        <v>0.6337285725906199</v>
       </c>
       <c r="N21">
-        <v>2.054862428386258</v>
+        <v>0.8052603074677194</v>
       </c>
       <c r="O21">
-        <v>4.816930262906709</v>
+        <v>2.761894719696755</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5826269309528413</v>
+        <v>1.51403286245457</v>
       </c>
       <c r="C22">
-        <v>0.1120678590064017</v>
+        <v>0.2818144967414753</v>
       </c>
       <c r="D22">
-        <v>0.6568663327523154</v>
+        <v>0.6333098590896213</v>
       </c>
       <c r="E22">
-        <v>0.2476996642235534</v>
+        <v>0.2140713080118459</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002487561093309773</v>
+        <v>0.0008005112499074002</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9265653439000801</v>
+        <v>0.4685123875316322</v>
       </c>
       <c r="J22">
-        <v>0.1143887969968205</v>
+        <v>0.08169579446615671</v>
       </c>
       <c r="K22">
-        <v>0.6665136001596181</v>
+        <v>1.718989998876481</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4119534620831047</v>
+        <v>0.6797260772184117</v>
       </c>
       <c r="N22">
-        <v>2.040525949173972</v>
+        <v>0.7714073199769302</v>
       </c>
       <c r="O22">
-        <v>4.815458729672343</v>
+        <v>2.840524125161835</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5669690381992893</v>
+        <v>1.45728480699637</v>
       </c>
       <c r="C23">
-        <v>0.1092485713824942</v>
+        <v>0.2711144484844681</v>
       </c>
       <c r="D23">
-        <v>0.6532443758153761</v>
+        <v>0.6143039665192873</v>
       </c>
       <c r="E23">
-        <v>0.2466603811685104</v>
+        <v>0.2080495790732897</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002488571490178448</v>
+        <v>0.0008022241465195064</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9278420067559452</v>
+        <v>0.4650727578777492</v>
       </c>
       <c r="J23">
-        <v>0.1141347888278332</v>
+        <v>0.07973104819317456</v>
       </c>
       <c r="K23">
-        <v>0.6488661839923964</v>
+        <v>1.654380878163948</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.405952223711104</v>
+        <v>0.6551218476702232</v>
       </c>
       <c r="N23">
-        <v>2.048127199448317</v>
+        <v>0.7893495338590419</v>
       </c>
       <c r="O23">
-        <v>4.816068463249479</v>
+        <v>2.798038296517689</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5078713072900598</v>
+        <v>1.24386710642159</v>
       </c>
       <c r="C24">
-        <v>0.09861844419566523</v>
+        <v>0.230991603032578</v>
       </c>
       <c r="D24">
-        <v>0.6400249498840651</v>
+        <v>0.5438290153339267</v>
       </c>
       <c r="E24">
-        <v>0.2429108046933592</v>
+        <v>0.1857917729216751</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002492550667250816</v>
+        <v>0.0008088288270485032</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9333915714866805</v>
+        <v>0.4539733218231561</v>
       </c>
       <c r="J24">
-        <v>0.1132565243620505</v>
+        <v>0.07252553697297515</v>
       </c>
       <c r="K24">
-        <v>0.5822741431297231</v>
+        <v>1.411550537726129</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3835008387111998</v>
+        <v>0.5630707667978001</v>
       </c>
       <c r="N24">
-        <v>2.078022583038248</v>
+        <v>0.8600037278915984</v>
       </c>
       <c r="O24">
-        <v>4.822237214296962</v>
+        <v>2.648142329860207</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4445776628689089</v>
+        <v>1.016235557579449</v>
       </c>
       <c r="C25">
-        <v>0.08725540140075339</v>
+        <v>0.1884023696825068</v>
       </c>
       <c r="D25">
-        <v>0.6268346223550907</v>
+        <v>0.4706260714816324</v>
       </c>
       <c r="E25">
-        <v>0.2392661875532873</v>
+        <v>0.1628124221400817</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002497170733524218</v>
+        <v>0.000816222384414403</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9409042220791406</v>
+        <v>0.4457290230984299</v>
       </c>
       <c r="J25">
-        <v>0.112488471998418</v>
+        <v>0.06519838655069776</v>
       </c>
       <c r="K25">
-        <v>0.5109841466398564</v>
+        <v>1.15281281966756</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3598819896724024</v>
+        <v>0.4658182760539304</v>
       </c>
       <c r="N25">
-        <v>2.112632166146165</v>
+        <v>0.9416134482344276</v>
       </c>
       <c r="O25">
-        <v>4.837140510911041</v>
+        <v>2.507532272294071</v>
       </c>
     </row>
   </sheetData>
